--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90805.06000664255</v>
+        <v>16704816.25434539</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90805.06000664255</v>
+        <v>16704816.25434539</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27131.94325707914</v>
+        <v>3383831.229565129</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27131.94325707914</v>
+        <v>3383831.229565129</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342087062.528866</v>
+        <v>51280773.37517265</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11000.08412109443</v>
+        <v>1158439.216568577</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20957.45118543087</v>
+        <v>2157003.533695601</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30899.59254009465</v>
+        <v>3158277.643381618</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40861.33067708088</v>
+        <v>4153979.823584736</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50812.53739591147</v>
+        <v>5155596.214599864</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60606.81429420612</v>
+        <v>6198479.769985632</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70298.52481419036</v>
+        <v>7287701.513576224</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79964.47479098392</v>
+        <v>8369626.666371876</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89894.26741212393</v>
+        <v>9382976.225274533</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99480.74782237143</v>
+        <v>10473999.21767898</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>108939.6556317714</v>
+        <v>11572530.40640474</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>118370.6812457616</v>
+        <v>12668724.72968983</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>127801.7068597518</v>
+        <v>13764919.05297493</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>138063.7666956894</v>
+        <v>14723143.55722043</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149182.0598726613</v>
+        <v>15469526.822805</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>395.0000000000552</v>
@@ -27055,10 +27055,10 @@
         <v>48.99999999994486</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>349</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>13.0000000005699</v>
